--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H2">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I2">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J2">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.66373723921593</v>
+        <v>22.2939</v>
       </c>
       <c r="N2">
-        <v>8.66373723921593</v>
+        <v>66.8817</v>
       </c>
       <c r="O2">
-        <v>0.1634727992870802</v>
+        <v>0.3209125068732572</v>
       </c>
       <c r="P2">
-        <v>0.1634727992870802</v>
+        <v>0.3209125068732573</v>
       </c>
       <c r="Q2">
-        <v>6.664004186791857</v>
+        <v>20.81117729879999</v>
       </c>
       <c r="R2">
-        <v>6.664004186791857</v>
+        <v>187.3005956892</v>
       </c>
       <c r="S2">
-        <v>0.03546914155328372</v>
+        <v>0.06710141518762042</v>
       </c>
       <c r="T2">
-        <v>0.03546914155328372</v>
+        <v>0.06710141518762042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H3">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I3">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J3">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.558066706859</v>
+        <v>22.81307866666667</v>
       </c>
       <c r="N3">
-        <v>22.558066706859</v>
+        <v>68.43923599999999</v>
       </c>
       <c r="O3">
-        <v>0.4256396759568229</v>
+        <v>0.3283858932002398</v>
       </c>
       <c r="P3">
-        <v>0.4256396759568229</v>
+        <v>0.3283858932002398</v>
       </c>
       <c r="Q3">
-        <v>17.35129388504435</v>
+        <v>21.295826430704</v>
       </c>
       <c r="R3">
-        <v>17.35129388504435</v>
+        <v>191.662437876336</v>
       </c>
       <c r="S3">
-        <v>0.09235220772535908</v>
+        <v>0.06866406789838682</v>
       </c>
       <c r="T3">
-        <v>0.09235220772535908</v>
+        <v>0.06866406789838682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H4">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I4">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J4">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.7347109756798</v>
+        <v>19.143989</v>
       </c>
       <c r="N4">
-        <v>16.7347109756798</v>
+        <v>57.43196699999999</v>
       </c>
       <c r="O4">
-        <v>0.3157609669960605</v>
+        <v>0.2755706942950341</v>
       </c>
       <c r="P4">
-        <v>0.3157609669960605</v>
+        <v>0.2755706942950342</v>
       </c>
       <c r="Q4">
-        <v>12.87206443679892</v>
+        <v>17.87076057958799</v>
       </c>
       <c r="R4">
-        <v>12.87206443679892</v>
+        <v>160.836845216292</v>
       </c>
       <c r="S4">
-        <v>0.06851152292141714</v>
+        <v>0.05762063857092022</v>
       </c>
       <c r="T4">
-        <v>0.06851152292141714</v>
+        <v>0.05762063857092022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H5">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I5">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J5">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.04152069639874</v>
+        <v>5.219369333333334</v>
       </c>
       <c r="N5">
-        <v>5.04152069639874</v>
+        <v>15.658108</v>
       </c>
       <c r="O5">
-        <v>0.09512655776003634</v>
+        <v>0.07513090563146878</v>
       </c>
       <c r="P5">
-        <v>0.09512655776003634</v>
+        <v>0.07513090563146878</v>
       </c>
       <c r="Q5">
-        <v>3.877854798795758</v>
+        <v>4.872239517712</v>
       </c>
       <c r="R5">
-        <v>3.877854798795758</v>
+        <v>43.850155659408</v>
       </c>
       <c r="S5">
-        <v>0.0206398701030503</v>
+        <v>0.01570954694573554</v>
       </c>
       <c r="T5">
-        <v>0.0206398701030503</v>
+        <v>0.01570954694573554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H6">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I6">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J6">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.66373723921593</v>
+        <v>22.2939</v>
       </c>
       <c r="N6">
-        <v>8.66373723921593</v>
+        <v>66.8817</v>
       </c>
       <c r="O6">
-        <v>0.1634727992870802</v>
+        <v>0.3209125068732572</v>
       </c>
       <c r="P6">
-        <v>0.1634727992870802</v>
+        <v>0.3209125068732573</v>
       </c>
       <c r="Q6">
-        <v>13.72318399048119</v>
+        <v>43.7926657626</v>
       </c>
       <c r="R6">
-        <v>13.72318399048119</v>
+        <v>394.1339918634</v>
       </c>
       <c r="S6">
-        <v>0.07304160409816043</v>
+        <v>0.1412005580135225</v>
       </c>
       <c r="T6">
-        <v>0.07304160409816043</v>
+        <v>0.1412005580135225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H7">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I7">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J7">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.558066706859</v>
+        <v>22.81307866666667</v>
       </c>
       <c r="N7">
-        <v>22.558066706859</v>
+        <v>68.43923599999999</v>
       </c>
       <c r="O7">
-        <v>0.4256396759568229</v>
+        <v>0.3283858932002398</v>
       </c>
       <c r="P7">
-        <v>0.4256396759568229</v>
+        <v>0.3283858932002398</v>
       </c>
       <c r="Q7">
-        <v>35.73151993651533</v>
+        <v>44.812506069608</v>
       </c>
       <c r="R7">
-        <v>35.73151993651533</v>
+        <v>403.312554626472</v>
       </c>
       <c r="S7">
-        <v>0.1901809037056396</v>
+        <v>0.1444888259900565</v>
       </c>
       <c r="T7">
-        <v>0.1901809037056396</v>
+        <v>0.1444888259900565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H8">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I8">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J8">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.7347109756798</v>
+        <v>19.143989</v>
       </c>
       <c r="N8">
-        <v>16.7347109756798</v>
+        <v>57.43196699999999</v>
       </c>
       <c r="O8">
-        <v>0.3157609669960605</v>
+        <v>0.2755706942950341</v>
       </c>
       <c r="P8">
-        <v>0.3157609669960605</v>
+        <v>0.2755706942950342</v>
       </c>
       <c r="Q8">
-        <v>26.50744262040462</v>
+        <v>37.60518848832599</v>
       </c>
       <c r="R8">
-        <v>26.50744262040462</v>
+        <v>338.446696394934</v>
       </c>
       <c r="S8">
-        <v>0.1410857808856361</v>
+        <v>0.1212502939999164</v>
       </c>
       <c r="T8">
-        <v>0.1410857808856361</v>
+        <v>0.1212502939999165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H9">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I9">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J9">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.04152069639874</v>
+        <v>5.219369333333334</v>
       </c>
       <c r="N9">
-        <v>5.04152069639874</v>
+        <v>15.658108</v>
       </c>
       <c r="O9">
-        <v>0.09512655776003634</v>
+        <v>0.07513090563146878</v>
       </c>
       <c r="P9">
-        <v>0.09512655776003634</v>
+        <v>0.07513090563146878</v>
       </c>
       <c r="Q9">
-        <v>7.985666485282293</v>
+        <v>10.252584640024</v>
       </c>
       <c r="R9">
-        <v>7.985666485282293</v>
+        <v>92.273261760216</v>
       </c>
       <c r="S9">
-        <v>0.04250368502546652</v>
+        <v>0.03305737723526767</v>
       </c>
       <c r="T9">
-        <v>0.04250368502546652</v>
+        <v>0.03305737723526767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.19190670570932</v>
+        <v>0.1531806666666667</v>
       </c>
       <c r="H10">
-        <v>1.19190670570932</v>
+        <v>0.459542</v>
       </c>
       <c r="I10">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585257</v>
       </c>
       <c r="J10">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585256</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.66373723921593</v>
+        <v>22.2939</v>
       </c>
       <c r="N10">
-        <v>8.66373723921593</v>
+        <v>66.8817</v>
       </c>
       <c r="O10">
-        <v>0.1634727992870802</v>
+        <v>0.3209125068732572</v>
       </c>
       <c r="P10">
-        <v>0.1634727992870802</v>
+        <v>0.3209125068732573</v>
       </c>
       <c r="Q10">
-        <v>10.32636651192502</v>
+        <v>3.414994464599999</v>
       </c>
       <c r="R10">
-        <v>10.32636651192502</v>
+        <v>30.7349501814</v>
       </c>
       <c r="S10">
-        <v>0.05496205363563603</v>
+        <v>0.01101095618678734</v>
       </c>
       <c r="T10">
-        <v>0.05496205363563603</v>
+        <v>0.01101095618678734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.19190670570932</v>
+        <v>0.1531806666666667</v>
       </c>
       <c r="H11">
-        <v>1.19190670570932</v>
+        <v>0.459542</v>
       </c>
       <c r="I11">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585257</v>
       </c>
       <c r="J11">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585256</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.558066706859</v>
+        <v>22.81307866666667</v>
       </c>
       <c r="N11">
-        <v>22.558066706859</v>
+        <v>68.43923599999999</v>
       </c>
       <c r="O11">
-        <v>0.4256396759568229</v>
+        <v>0.3283858932002398</v>
       </c>
       <c r="P11">
-        <v>0.4256396759568229</v>
+        <v>0.3283858932002398</v>
       </c>
       <c r="Q11">
-        <v>26.8871109757434</v>
+        <v>3.494522598879111</v>
       </c>
       <c r="R11">
-        <v>26.8871109757434</v>
+        <v>31.450703389912</v>
       </c>
       <c r="S11">
-        <v>0.1431065645258241</v>
+        <v>0.01126737850642551</v>
       </c>
       <c r="T11">
-        <v>0.1431065645258241</v>
+        <v>0.01126737850642551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.19190670570932</v>
+        <v>0.1531806666666667</v>
       </c>
       <c r="H12">
-        <v>1.19190670570932</v>
+        <v>0.459542</v>
       </c>
       <c r="I12">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585257</v>
       </c>
       <c r="J12">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585256</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7347109756798</v>
+        <v>19.143989</v>
       </c>
       <c r="N12">
-        <v>16.7347109756798</v>
+        <v>57.43196699999999</v>
       </c>
       <c r="O12">
-        <v>0.3157609669960605</v>
+        <v>0.2755706942950341</v>
       </c>
       <c r="P12">
-        <v>0.3157609669960605</v>
+        <v>0.2755706942950342</v>
       </c>
       <c r="Q12">
-        <v>19.94621423002011</v>
+        <v>2.932488997679333</v>
       </c>
       <c r="R12">
-        <v>19.94621423002011</v>
+        <v>26.392400979114</v>
       </c>
       <c r="S12">
-        <v>0.1061636631890073</v>
+        <v>0.009455215288457327</v>
       </c>
       <c r="T12">
-        <v>0.1061636631890073</v>
+        <v>0.009455215288457327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1531806666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.459542</v>
+      </c>
+      <c r="I13">
+        <v>0.03431139625585257</v>
+      </c>
+      <c r="J13">
+        <v>0.03431139625585256</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.219369333333334</v>
+      </c>
+      <c r="N13">
+        <v>15.658108</v>
+      </c>
+      <c r="O13">
+        <v>0.07513090563146878</v>
+      </c>
+      <c r="P13">
+        <v>0.07513090563146878</v>
+      </c>
+      <c r="Q13">
+        <v>0.7995064740595555</v>
+      </c>
+      <c r="R13">
+        <v>7.195558266536001</v>
+      </c>
+      <c r="S13">
+        <v>0.002577846274182391</v>
+      </c>
+      <c r="T13">
+        <v>0.00257784627418239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.240256</v>
+      </c>
+      <c r="I14">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J14">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>22.2939</v>
+      </c>
+      <c r="N14">
+        <v>66.8817</v>
+      </c>
+      <c r="O14">
+        <v>0.3209125068732572</v>
+      </c>
+      <c r="P14">
+        <v>0.3209125068732573</v>
+      </c>
+      <c r="Q14">
+        <v>31.5106144128</v>
+      </c>
+      <c r="R14">
+        <v>283.5955297152</v>
+      </c>
+      <c r="S14">
+        <v>0.101599577485327</v>
+      </c>
+      <c r="T14">
+        <v>0.101599577485327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.240256</v>
+      </c>
+      <c r="I15">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J15">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.81307866666667</v>
+      </c>
+      <c r="N15">
+        <v>68.43923599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.3283858932002398</v>
+      </c>
+      <c r="P15">
+        <v>0.3283858932002398</v>
+      </c>
+      <c r="Q15">
+        <v>32.24443123160178</v>
+      </c>
+      <c r="R15">
+        <v>290.199881084416</v>
+      </c>
+      <c r="S15">
+        <v>0.103965620805371</v>
+      </c>
+      <c r="T15">
+        <v>0.103965620805371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.19190670570932</v>
-      </c>
-      <c r="H13">
-        <v>1.19190670570932</v>
-      </c>
-      <c r="I13">
-        <v>0.336215283981987</v>
-      </c>
-      <c r="J13">
-        <v>0.336215283981987</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.04152069639874</v>
-      </c>
-      <c r="N13">
-        <v>5.04152069639874</v>
-      </c>
-      <c r="O13">
-        <v>0.09512655776003634</v>
-      </c>
-      <c r="P13">
-        <v>0.09512655776003634</v>
-      </c>
-      <c r="Q13">
-        <v>6.009022325009979</v>
-      </c>
-      <c r="R13">
-        <v>6.009022325009979</v>
-      </c>
-      <c r="S13">
-        <v>0.03198300263151951</v>
-      </c>
-      <c r="T13">
-        <v>0.03198300263151951</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.240256</v>
+      </c>
+      <c r="I16">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J16">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.143989</v>
+      </c>
+      <c r="N16">
+        <v>57.43196699999999</v>
+      </c>
+      <c r="O16">
+        <v>0.2755706942950341</v>
+      </c>
+      <c r="P16">
+        <v>0.2755706942950342</v>
+      </c>
+      <c r="Q16">
+        <v>27.05847140706133</v>
+      </c>
+      <c r="R16">
+        <v>243.526242663552</v>
+      </c>
+      <c r="S16">
+        <v>0.08724454643574019</v>
+      </c>
+      <c r="T16">
+        <v>0.08724454643574019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.240256</v>
+      </c>
+      <c r="I17">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J17">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.219369333333334</v>
+      </c>
+      <c r="N17">
+        <v>15.658108</v>
+      </c>
+      <c r="O17">
+        <v>0.07513090563146878</v>
+      </c>
+      <c r="P17">
+        <v>0.07513090563146878</v>
+      </c>
+      <c r="Q17">
+        <v>7.37715404396089</v>
+      </c>
+      <c r="R17">
+        <v>66.39438639564801</v>
+      </c>
+      <c r="S17">
+        <v>0.02378613517628319</v>
+      </c>
+      <c r="T17">
+        <v>0.02378613517628318</v>
       </c>
     </row>
   </sheetData>
